--- a/data/extractions/251110 Fiche d'extraction d'échantillons.xlsx
+++ b/data/extractions/251110 Fiche d'extraction d'échantillons.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\02 - Extractions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2289266E-1A92-42FC-8B99-D93D253008C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2289266E-1A92-42FC-8B99-D93D253008C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69E0C573-346E-4C74-B4E4-09F45F95B512}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Extractions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Extractions!$A$1:$L$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Extractions!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="19">
   <si>
     <t>Numéro</t>
   </si>
@@ -246,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,12 +267,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,13 +333,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,10 +350,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -507,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,30 +651,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8F8353-8CB1-400B-B8E5-1BA03F155009}">
-  <dimension ref="A1:L464"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="71.45" customHeight="1">
+    <row r="1" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -718,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>433</v>
       </c>
@@ -756,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>434</v>
       </c>
@@ -794,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>435</v>
       </c>
@@ -832,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>436</v>
       </c>
@@ -870,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>437</v>
       </c>
@@ -908,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>438</v>
       </c>
@@ -946,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>439</v>
       </c>
@@ -984,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>440</v>
       </c>
@@ -1022,7 +1016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>441</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>442</v>
       </c>
@@ -1098,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>443</v>
       </c>
@@ -1136,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>444</v>
       </c>
@@ -1174,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>445</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>446</v>
       </c>
@@ -1250,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>447</v>
       </c>
@@ -1288,7 +1282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>448</v>
       </c>
@@ -1326,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>449</v>
       </c>
@@ -1364,7 +1358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>450</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>451</v>
       </c>
@@ -1440,7 +1434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>452</v>
       </c>
@@ -1478,7 +1472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>453</v>
       </c>
@@ -1516,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>454</v>
       </c>
@@ -1554,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>455</v>
       </c>
@@ -1592,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>456</v>
       </c>
@@ -1630,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>457</v>
       </c>
@@ -1668,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>458</v>
       </c>
@@ -1706,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>459</v>
       </c>
@@ -1720,7 +1714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>460</v>
       </c>
@@ -1758,7 +1752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>461</v>
       </c>
@@ -1796,7 +1790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>462</v>
       </c>
@@ -1834,1194 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="8:12">
-      <c r="H52" s="6"/>
-      <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="8:12">
-      <c r="H53" s="6"/>
-      <c r="L53" s="6"/>
-    </row>
-    <row r="54" spans="8:12">
-      <c r="H54" s="6"/>
-      <c r="L54" s="6"/>
-    </row>
-    <row r="55" spans="8:12">
-      <c r="H55" s="6"/>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="8:12">
-      <c r="H56" s="6"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="8:12">
-      <c r="H57" s="6"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="8:12">
-      <c r="H58" s="6"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="8:12">
-      <c r="H59" s="6"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="8:12">
-      <c r="H60" s="6"/>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="8:12">
-      <c r="H61" s="6"/>
-      <c r="L61" s="6"/>
-    </row>
-    <row r="258" spans="2:2" ht="15.6">
-      <c r="B258" s="7"/>
-    </row>
-    <row r="259" spans="2:2" ht="15.6">
-      <c r="B259" s="7"/>
-    </row>
-    <row r="260" spans="2:2" ht="15.6">
-      <c r="B260" s="7"/>
-    </row>
-    <row r="261" spans="2:2" ht="15.6">
-      <c r="B261" s="7"/>
-    </row>
-    <row r="262" spans="2:2" ht="15.6">
-      <c r="B262" s="7"/>
-    </row>
-    <row r="263" spans="2:2" ht="15.6">
-      <c r="B263" s="7"/>
-    </row>
-    <row r="264" spans="2:2" ht="15.6">
-      <c r="B264" s="7"/>
-    </row>
-    <row r="265" spans="2:2" ht="15.6">
-      <c r="B265" s="7"/>
-    </row>
-    <row r="266" spans="2:2" ht="15.6">
-      <c r="B266" s="7"/>
-    </row>
-    <row r="267" spans="2:2" ht="15.6">
-      <c r="B267" s="7"/>
-    </row>
-    <row r="435" spans="1:12">
-      <c r="A435" s="1">
-        <v>433</v>
-      </c>
-      <c r="B435" s="1">
-        <v>2500936</v>
-      </c>
-      <c r="C435" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D435" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E435" s="1">
-        <v>37</v>
-      </c>
-      <c r="F435" s="1">
-        <v>1</v>
-      </c>
-      <c r="G435" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H435" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I435" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J435" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K435" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L435" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12">
-      <c r="A436" s="1">
-        <v>434</v>
-      </c>
-      <c r="B436" s="1">
-        <v>2500012</v>
-      </c>
-      <c r="C436" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D436" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E436" s="1">
-        <v>37</v>
-      </c>
-      <c r="F436" s="1">
-        <v>2</v>
-      </c>
-      <c r="G436" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H436" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I436" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J436" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K436" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L436" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="437" spans="1:12">
-      <c r="A437" s="1">
-        <v>435</v>
-      </c>
-      <c r="B437" s="1">
-        <v>2500030</v>
-      </c>
-      <c r="C437" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D437" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="E437" s="1">
-        <v>37</v>
-      </c>
-      <c r="F437" s="1">
-        <v>3</v>
-      </c>
-      <c r="G437" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H437" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I437" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J437" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K437" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L437" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="438" spans="1:12">
-      <c r="A438" s="1">
-        <v>436</v>
-      </c>
-      <c r="B438" s="1">
-        <v>2500005</v>
-      </c>
-      <c r="C438" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D438" s="6">
-        <v>2</v>
-      </c>
-      <c r="E438" s="1">
-        <v>37</v>
-      </c>
-      <c r="F438" s="1">
-        <v>4</v>
-      </c>
-      <c r="G438" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H438" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I438" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J438" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K438" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L438" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="439" spans="1:12">
-      <c r="A439" s="1">
-        <v>437</v>
-      </c>
-      <c r="B439" s="1">
-        <v>2501091</v>
-      </c>
-      <c r="C439" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D439" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E439" s="1">
-        <v>37</v>
-      </c>
-      <c r="F439" s="1">
-        <v>5</v>
-      </c>
-      <c r="G439" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H439" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I439" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J439" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K439" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L439" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="440" spans="1:12">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="B440" s="1">
-        <v>2501075</v>
-      </c>
-      <c r="C440" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D440" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E440" s="1">
-        <v>37</v>
-      </c>
-      <c r="F440" s="1">
-        <v>6</v>
-      </c>
-      <c r="G440" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H440" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I440" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J440" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K440" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L440" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441" s="1">
-        <v>2501104</v>
-      </c>
-      <c r="C441" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D441" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E441" s="1">
-        <v>37</v>
-      </c>
-      <c r="F441" s="1">
-        <v>7</v>
-      </c>
-      <c r="G441" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H441" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I441" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J441" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K441" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L441" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442" s="1">
-        <v>2501126</v>
-      </c>
-      <c r="C442" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D442" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E442" s="1">
-        <v>37</v>
-      </c>
-      <c r="F442" s="1">
-        <v>8</v>
-      </c>
-      <c r="G442" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H442" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I442" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J442" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K442" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L442" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="443" spans="1:12">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443" s="1">
-        <v>2501125</v>
-      </c>
-      <c r="C443" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D443" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E443" s="1">
-        <v>37</v>
-      </c>
-      <c r="F443" s="1">
-        <v>9</v>
-      </c>
-      <c r="G443" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H443" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I443" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J443" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K443" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L443" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="444" spans="1:12">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444" s="1">
-        <v>2501138</v>
-      </c>
-      <c r="C444" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D444" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E444" s="1">
-        <v>37</v>
-      </c>
-      <c r="F444" s="1">
-        <v>10</v>
-      </c>
-      <c r="G444" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H444" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I444" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J444" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K444" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L444" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:12">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445" s="1">
-        <v>2501130</v>
-      </c>
-      <c r="C445" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D445" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="E445" s="1">
-        <v>37</v>
-      </c>
-      <c r="F445" s="1">
-        <v>11</v>
-      </c>
-      <c r="G445" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H445" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I445" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J445" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K445" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L445" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:12">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446" s="1">
-        <v>2501096</v>
-      </c>
-      <c r="C446" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D446" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E446" s="1">
-        <v>37</v>
-      </c>
-      <c r="F446" s="1">
-        <v>12</v>
-      </c>
-      <c r="G446" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H446" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I446" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J446" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K446" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L446" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:12">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="B447" s="1">
-        <v>2501114</v>
-      </c>
-      <c r="C447" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D447" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E447" s="1">
-        <v>37</v>
-      </c>
-      <c r="F447" s="1">
-        <v>13</v>
-      </c>
-      <c r="G447" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H447" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I447" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J447" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K447" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L447" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="B448" s="1">
-        <v>2501127</v>
-      </c>
-      <c r="C448" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D448" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E448" s="1">
-        <v>37</v>
-      </c>
-      <c r="F448" s="1">
-        <v>14</v>
-      </c>
-      <c r="G448" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H448" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I448" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J448" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K448" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L448" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="449" spans="1:12">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="B449" s="1">
-        <v>2501118</v>
-      </c>
-      <c r="C449" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D449" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E449" s="1">
-        <v>37</v>
-      </c>
-      <c r="F449" s="1">
-        <v>15</v>
-      </c>
-      <c r="G449" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H449" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I449" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J449" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K449" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L449" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="450" spans="1:12">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="B450" s="1">
-        <v>2501128</v>
-      </c>
-      <c r="C450" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D450" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E450" s="1">
-        <v>38</v>
-      </c>
-      <c r="F450" s="1">
-        <v>1</v>
-      </c>
-      <c r="G450" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H450" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I450" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J450" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K450" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L450" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="451" spans="1:12">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="B451" s="1">
-        <v>2501129</v>
-      </c>
-      <c r="C451" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D451" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E451" s="1">
-        <v>38</v>
-      </c>
-      <c r="F451" s="1">
-        <v>2</v>
-      </c>
-      <c r="G451" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H451" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I451" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J451" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K451" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L451" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="452" spans="1:12">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="B452" s="1">
-        <v>2401034</v>
-      </c>
-      <c r="C452" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D452" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E452" s="1">
-        <v>38</v>
-      </c>
-      <c r="F452" s="1">
-        <v>3</v>
-      </c>
-      <c r="G452" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H452" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I452" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J452" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K452" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L452" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="453" spans="1:12">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="B453" s="1">
-        <v>2501938</v>
-      </c>
-      <c r="C453" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D453" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E453" s="1">
-        <v>38</v>
-      </c>
-      <c r="F453" s="1">
-        <v>4</v>
-      </c>
-      <c r="G453" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H453" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I453" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J453" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K453" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L453" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="454" spans="1:12">
-      <c r="A454" s="1">
-        <v>452</v>
-      </c>
-      <c r="B454" s="1">
-        <v>2500036</v>
-      </c>
-      <c r="C454" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D454" s="6">
-        <v>2</v>
-      </c>
-      <c r="E454" s="1">
-        <v>38</v>
-      </c>
-      <c r="F454" s="1">
-        <v>5</v>
-      </c>
-      <c r="G454" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H454" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I454" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J454" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K454" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L454" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="455" spans="1:12">
-      <c r="A455" s="1">
-        <v>453</v>
-      </c>
-      <c r="B455" s="1">
-        <v>2500769</v>
-      </c>
-      <c r="C455" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D455" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E455" s="1">
-        <v>38</v>
-      </c>
-      <c r="F455" s="1">
-        <v>6</v>
-      </c>
-      <c r="G455" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H455" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I455" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J455" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K455" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L455" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="456" spans="1:12">
-      <c r="A456" s="1">
-        <v>454</v>
-      </c>
-      <c r="B456" s="1">
-        <v>2500766</v>
-      </c>
-      <c r="C456" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D456" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E456" s="1">
-        <v>38</v>
-      </c>
-      <c r="F456" s="1">
-        <v>7</v>
-      </c>
-      <c r="G456" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H456" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I456" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J456" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K456" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L456" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:12">
-      <c r="A457" s="1">
-        <v>455</v>
-      </c>
-      <c r="B457" s="1">
-        <v>2500796</v>
-      </c>
-      <c r="C457" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D457" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="E457" s="1">
-        <v>38</v>
-      </c>
-      <c r="F457" s="1">
-        <v>8</v>
-      </c>
-      <c r="G457" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H457" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I457" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J457" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K457" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L457" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="458" spans="1:12">
-      <c r="A458" s="1">
-        <v>456</v>
-      </c>
-      <c r="B458" s="1">
-        <v>2500770</v>
-      </c>
-      <c r="C458" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D458" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E458" s="1">
-        <v>38</v>
-      </c>
-      <c r="F458" s="1">
-        <v>9</v>
-      </c>
-      <c r="G458" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H458" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I458" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J458" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K458" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L458" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:12">
-      <c r="A459" s="1">
-        <v>457</v>
-      </c>
-      <c r="B459" s="1">
-        <v>2500705</v>
-      </c>
-      <c r="C459" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D459" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E459" s="1">
-        <v>38</v>
-      </c>
-      <c r="F459" s="1">
-        <v>10</v>
-      </c>
-      <c r="G459" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H459" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I459" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J459" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K459" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L459" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="460" spans="1:12">
-      <c r="A460" s="1">
-        <v>458</v>
-      </c>
-      <c r="B460" s="1">
-        <v>2500797</v>
-      </c>
-      <c r="C460" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D460" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E460" s="1">
-        <v>38</v>
-      </c>
-      <c r="F460" s="1">
-        <v>11</v>
-      </c>
-      <c r="G460" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H460" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I460" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J460" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K460" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L460" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="461" spans="1:12">
-      <c r="A461" s="1">
-        <v>459</v>
-      </c>
-      <c r="J461" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K461" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L461" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="462" spans="1:12">
-      <c r="A462" s="1">
-        <v>460</v>
-      </c>
-      <c r="B462" s="1">
-        <v>2500794</v>
-      </c>
-      <c r="C462" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D462" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E462" s="1">
-        <v>38</v>
-      </c>
-      <c r="F462" s="1">
-        <v>13</v>
-      </c>
-      <c r="G462" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H462" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I462" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J462" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K462" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L462" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="463" spans="1:12">
-      <c r="A463" s="1">
-        <v>461</v>
-      </c>
-      <c r="B463" s="1">
-        <v>2500775</v>
-      </c>
-      <c r="C463" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D463" s="6">
-        <v>2</v>
-      </c>
-      <c r="E463" s="1">
-        <v>38</v>
-      </c>
-      <c r="F463" s="1">
-        <v>14</v>
-      </c>
-      <c r="G463" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H463" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I463" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J463" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K463" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L463" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="464" spans="1:12">
-      <c r="A464" s="1">
-        <v>462</v>
-      </c>
-      <c r="B464" s="1">
-        <v>2500765</v>
-      </c>
-      <c r="C464" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D464" s="6">
-        <v>1</v>
-      </c>
-      <c r="E464" s="1">
-        <v>38</v>
-      </c>
-      <c r="F464" s="1">
-        <v>15</v>
-      </c>
-      <c r="G464" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H464" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I464" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J464" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K464" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L464" s="1">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{3F8F8353-8CB1-400B-B8E5-1BA03F155009}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3037,6 +1844,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-11-13T09:28:31+00:00</Uploaded>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="93e6b79bffcb710984822118ae45b29f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c971e98cb6cdb6e05177eaad282d8065" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
@@ -3214,25 +2032,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-11-13T09:28:31+00:00</Uploaded>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2336FAC-DB84-4461-8059-07B4A8F0AE93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2336FAC-DB84-4461-8059-07B4A8F0AE93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA67DB9-518D-4E81-9237-15C870CA5E40}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{388FF1BA-665F-4582-9383-9AD8A16674A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{388FF1BA-665F-4582-9383-9AD8A16674A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA67DB9-518D-4E81-9237-15C870CA5E40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>